--- a/Code/Results/Cases/Case_2_225/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_225/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010399259378918</v>
+        <v>1.033169590446045</v>
       </c>
       <c r="D2">
-        <v>1.027111730576179</v>
+        <v>1.03753826882599</v>
       </c>
       <c r="E2">
-        <v>1.010904539363559</v>
+        <v>1.052123864072763</v>
       </c>
       <c r="F2">
-        <v>1.015847523151449</v>
+        <v>1.057553981660915</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049420957411806</v>
+        <v>1.037922478219318</v>
       </c>
       <c r="J2">
-        <v>1.032273317790958</v>
+        <v>1.038295790881637</v>
       </c>
       <c r="K2">
-        <v>1.038205848158646</v>
+        <v>1.040328867398276</v>
       </c>
       <c r="L2">
-        <v>1.022214018586194</v>
+        <v>1.054873466286093</v>
       </c>
       <c r="M2">
-        <v>1.02709040496586</v>
+        <v>1.060288634187176</v>
       </c>
       <c r="N2">
-        <v>1.033739264305634</v>
+        <v>1.039770289998881</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014667761667288</v>
+        <v>1.034039402005496</v>
       </c>
       <c r="D3">
-        <v>1.030316191598856</v>
+        <v>1.038201672324784</v>
       </c>
       <c r="E3">
-        <v>1.01637632571383</v>
+        <v>1.053360078097911</v>
       </c>
       <c r="F3">
-        <v>1.021626679829009</v>
+        <v>1.058855526115014</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050868165775752</v>
+        <v>1.038146384996785</v>
       </c>
       <c r="J3">
-        <v>1.034766401243248</v>
+        <v>1.03880860791844</v>
       </c>
       <c r="K3">
-        <v>1.04057532643184</v>
+        <v>1.040802486836172</v>
       </c>
       <c r="L3">
-        <v>1.02680387008612</v>
+        <v>1.055921376181862</v>
       </c>
       <c r="M3">
-        <v>1.03199012375196</v>
+        <v>1.061402799449501</v>
       </c>
       <c r="N3">
-        <v>1.036235888222378</v>
+        <v>1.040283835294698</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017369302755671</v>
+        <v>1.03460212914186</v>
       </c>
       <c r="D4">
-        <v>1.032345387867431</v>
+        <v>1.038630716912878</v>
       </c>
       <c r="E4">
-        <v>1.01984430743798</v>
+        <v>1.054160790830322</v>
       </c>
       <c r="F4">
-        <v>1.025288522419923</v>
+        <v>1.059698482950441</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051772145917152</v>
+        <v>1.038289788739589</v>
       </c>
       <c r="J4">
-        <v>1.036338899274926</v>
+        <v>1.039139692872616</v>
       </c>
       <c r="K4">
-        <v>1.042068497553047</v>
+        <v>1.041108046951252</v>
       </c>
       <c r="L4">
-        <v>1.029708986386844</v>
+        <v>1.056599679961033</v>
       </c>
       <c r="M4">
-        <v>1.035091024854242</v>
+        <v>1.062123957806312</v>
       </c>
       <c r="N4">
-        <v>1.037810619381629</v>
+        <v>1.040615390427484</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018491058993015</v>
+        <v>1.03483867516092</v>
       </c>
       <c r="D5">
-        <v>1.033188184775356</v>
+        <v>1.038811033037115</v>
       </c>
       <c r="E5">
-        <v>1.021285616042935</v>
+        <v>1.054497603011185</v>
       </c>
       <c r="F5">
-        <v>1.026810172384404</v>
+        <v>1.060053047616094</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05214459657472</v>
+        <v>1.03834972115403</v>
       </c>
       <c r="J5">
-        <v>1.036990531413156</v>
+        <v>1.039278702746202</v>
       </c>
       <c r="K5">
-        <v>1.042686916883766</v>
+        <v>1.041236287436277</v>
       </c>
       <c r="L5">
-        <v>1.030915419812992</v>
+        <v>1.056884896320435</v>
       </c>
       <c r="M5">
-        <v>1.036378675091807</v>
+        <v>1.062427186092869</v>
       </c>
       <c r="N5">
-        <v>1.038463176912239</v>
+        <v>1.040754597711035</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018678601651134</v>
+        <v>1.034878390821875</v>
       </c>
       <c r="D6">
-        <v>1.033329100679036</v>
+        <v>1.038841305695838</v>
       </c>
       <c r="E6">
-        <v>1.021526664052038</v>
+        <v>1.054554166582321</v>
       </c>
       <c r="F6">
-        <v>1.027064643458655</v>
+        <v>1.060112591501363</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052206693318429</v>
+        <v>1.038359763267452</v>
       </c>
       <c r="J6">
-        <v>1.037099397707355</v>
+        <v>1.039302032645597</v>
       </c>
       <c r="K6">
-        <v>1.04279021402</v>
+        <v>1.041257806832531</v>
       </c>
       <c r="L6">
-        <v>1.031117130844203</v>
+        <v>1.056932788798887</v>
       </c>
       <c r="M6">
-        <v>1.036593959889553</v>
+        <v>1.06247810260909</v>
       </c>
       <c r="N6">
-        <v>1.038572197809064</v>
+        <v>1.040777960741563</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017384345968376</v>
+        <v>1.034605289978423</v>
       </c>
       <c r="D7">
-        <v>1.032356689319257</v>
+        <v>1.038633126520212</v>
       </c>
       <c r="E7">
-        <v>1.019863630652515</v>
+        <v>1.054165290573164</v>
       </c>
       <c r="F7">
-        <v>1.025308923649835</v>
+        <v>1.059703219930085</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051777152172966</v>
+        <v>1.038290590953045</v>
       </c>
       <c r="J7">
-        <v>1.036347643151101</v>
+        <v>1.039141551030492</v>
       </c>
       <c r="K7">
-        <v>1.042076797128779</v>
+        <v>1.041109761360421</v>
       </c>
       <c r="L7">
-        <v>1.029725164445299</v>
+        <v>1.056603490809045</v>
       </c>
       <c r="M7">
-        <v>1.035108292373134</v>
+        <v>1.062128009346896</v>
       </c>
       <c r="N7">
-        <v>1.037819375675112</v>
+        <v>1.040617251224157</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011854651519026</v>
+        <v>1.033463567409383</v>
       </c>
       <c r="D8">
-        <v>1.028204070569923</v>
+        <v>1.0377625144099</v>
       </c>
       <c r="E8">
-        <v>1.012769263517012</v>
+        <v>1.05254148350357</v>
       </c>
       <c r="F8">
-        <v>1.017817194278824</v>
+        <v>1.057993685843297</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049916886287024</v>
+        <v>1.037998454503741</v>
       </c>
       <c r="J8">
-        <v>1.033124476409396</v>
+        <v>1.038469253059385</v>
       </c>
       <c r="K8">
-        <v>1.039015085829225</v>
+        <v>1.040489115908944</v>
       </c>
       <c r="L8">
-        <v>1.023779001041355</v>
+        <v>1.055227564045886</v>
       </c>
       <c r="M8">
-        <v>1.028761109940325</v>
+        <v>1.060665126764093</v>
       </c>
       <c r="N8">
-        <v>1.034591631666931</v>
+        <v>1.039943998512817</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001623442837962</v>
+        <v>1.031450979752627</v>
       </c>
       <c r="D9">
-        <v>1.020531577856499</v>
+        <v>1.036226734386599</v>
       </c>
       <c r="E9">
-        <v>0.9996754184618197</v>
+        <v>1.049686201600812</v>
       </c>
       <c r="F9">
-        <v>1.003982418431917</v>
+        <v>1.054987118572494</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046381215055467</v>
+        <v>1.037472366314304</v>
       </c>
       <c r="J9">
-        <v>1.0271190031151</v>
+        <v>1.037278922415161</v>
       </c>
       <c r="K9">
-        <v>1.033300101257486</v>
+        <v>1.039388572704939</v>
       </c>
       <c r="L9">
-        <v>1.012773763970885</v>
+        <v>1.052804770211395</v>
       </c>
       <c r="M9">
-        <v>1.017011212430688</v>
+        <v>1.058088977039187</v>
       </c>
       <c r="N9">
-        <v>1.02857762991172</v>
+        <v>1.038751977462546</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9944390067661268</v>
+        <v>1.030108807741054</v>
       </c>
       <c r="D10">
-        <v>1.015154335776906</v>
+        <v>1.03520183592457</v>
       </c>
       <c r="E10">
-        <v>0.9904927622175079</v>
+        <v>1.047786691431908</v>
       </c>
       <c r="F10">
-        <v>0.9942750748383477</v>
+        <v>1.05298659981944</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043837303624666</v>
+        <v>1.037114065485303</v>
       </c>
       <c r="J10">
-        <v>1.022875010569754</v>
+        <v>1.036481600778681</v>
       </c>
       <c r="K10">
-        <v>1.029255260600004</v>
+        <v>1.038650288671098</v>
       </c>
       <c r="L10">
-        <v>1.00503582100338</v>
+        <v>1.051190699454978</v>
       </c>
       <c r="M10">
-        <v>1.008748469672961</v>
+        <v>1.056372585256007</v>
       </c>
       <c r="N10">
-        <v>1.024327610410166</v>
+        <v>1.037953523537888</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9912330020643574</v>
+        <v>1.029527534550621</v>
       </c>
       <c r="D11">
-        <v>1.012757988001717</v>
+        <v>1.034757808860507</v>
       </c>
       <c r="E11">
-        <v>0.9863954412920772</v>
+        <v>1.046965117141634</v>
       </c>
       <c r="F11">
-        <v>0.9899424398372503</v>
+        <v>1.052121251331716</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042688130029596</v>
+        <v>1.036957125766216</v>
       </c>
       <c r="J11">
-        <v>1.020975101844174</v>
+        <v>1.036135464874189</v>
       </c>
       <c r="K11">
-        <v>1.027443252279652</v>
+        <v>1.038329523542049</v>
       </c>
       <c r="L11">
-        <v>1.001578562486229</v>
+        <v>1.050492041555515</v>
       </c>
       <c r="M11">
-        <v>1.005056552580418</v>
+        <v>1.05562960186808</v>
       </c>
       <c r="N11">
-        <v>1.022425003596273</v>
+        <v>1.03760689608071</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9900270439602974</v>
+        <v>1.029311608775864</v>
       </c>
       <c r="D12">
-        <v>1.011857134554783</v>
+        <v>1.034592842504421</v>
       </c>
       <c r="E12">
-        <v>0.9848540365123647</v>
+        <v>1.046660085482695</v>
       </c>
       <c r="F12">
-        <v>0.988312331091025</v>
+        <v>1.051799954414365</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04225380863424</v>
+        <v>1.036898562347717</v>
       </c>
       <c r="J12">
-        <v>1.02025955760878</v>
+        <v>1.036006761309214</v>
       </c>
       <c r="K12">
-        <v>1.026760642448191</v>
+        <v>1.038210214957252</v>
       </c>
       <c r="L12">
-        <v>1.000277277985379</v>
+        <v>1.050232564456249</v>
       </c>
       <c r="M12">
-        <v>1.003666927032111</v>
+        <v>1.055353657367177</v>
       </c>
       <c r="N12">
-        <v>1.021708443205992</v>
+        <v>1.037478009741909</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9902864234410288</v>
+        <v>1.029357926258532</v>
       </c>
       <c r="D13">
-        <v>1.012050865815428</v>
+        <v>1.034628229912436</v>
       </c>
       <c r="E13">
-        <v>0.9851855761084013</v>
+        <v>1.046725509606243</v>
       </c>
       <c r="F13">
-        <v>0.9886629580415711</v>
+        <v>1.051868867743888</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042347315184929</v>
+        <v>1.036911136567485</v>
       </c>
       <c r="J13">
-        <v>1.020413497451487</v>
+        <v>1.036034374684078</v>
       </c>
       <c r="K13">
-        <v>1.026907504308143</v>
+        <v>1.038235814380746</v>
       </c>
       <c r="L13">
-        <v>1.000557200273335</v>
+        <v>1.05028822158711</v>
       </c>
       <c r="M13">
-        <v>1.003965853186507</v>
+        <v>1.055412846944154</v>
       </c>
       <c r="N13">
-        <v>1.021862601660932</v>
+        <v>1.037505662330933</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.991133630287139</v>
+        <v>1.029509686362038</v>
       </c>
       <c r="D14">
-        <v>1.012683745551525</v>
+        <v>1.034744173396861</v>
       </c>
       <c r="E14">
-        <v>0.9862684333747402</v>
+        <v>1.04693990033112</v>
       </c>
       <c r="F14">
-        <v>0.9898081265714473</v>
+        <v>1.052094690143785</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042652383089387</v>
+        <v>1.036952290381527</v>
       </c>
       <c r="J14">
-        <v>1.020916158267966</v>
+        <v>1.03612482891337</v>
       </c>
       <c r="K14">
-        <v>1.027387025065709</v>
+        <v>1.038319664761144</v>
       </c>
       <c r="L14">
-        <v>1.001471353394316</v>
+        <v>1.050470592379876</v>
       </c>
       <c r="M14">
-        <v>1.004942065618194</v>
+        <v>1.055606791551695</v>
       </c>
       <c r="N14">
-        <v>1.022365976313427</v>
+        <v>1.037596245015606</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9916535952626637</v>
+        <v>1.029603188795903</v>
       </c>
       <c r="D15">
-        <v>1.013072243474191</v>
+        <v>1.034815605405314</v>
       </c>
       <c r="E15">
-        <v>0.9869329966039853</v>
+        <v>1.047072011721872</v>
       </c>
       <c r="F15">
-        <v>0.9905109074104961</v>
+        <v>1.052233844227162</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042839346363241</v>
+        <v>1.036977610968111</v>
       </c>
       <c r="J15">
-        <v>1.021224546033341</v>
+        <v>1.036180543103352</v>
       </c>
       <c r="K15">
-        <v>1.027681194211436</v>
+        <v>1.038371306281966</v>
       </c>
       <c r="L15">
-        <v>1.002032292961902</v>
+        <v>1.050582961716072</v>
       </c>
       <c r="M15">
-        <v>1.005541083819827</v>
+        <v>1.055726291508387</v>
       </c>
       <c r="N15">
-        <v>1.022674802024801</v>
+        <v>1.037652038326129</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.994649706760524</v>
+        <v>1.03014738278914</v>
       </c>
       <c r="D16">
-        <v>1.015311897008318</v>
+        <v>1.035231299583963</v>
       </c>
       <c r="E16">
-        <v>0.9907620288090265</v>
+        <v>1.047841235993935</v>
       </c>
       <c r="F16">
-        <v>0.9945597808642562</v>
+        <v>1.053044048751612</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043912540846079</v>
+        <v>1.037124443311014</v>
       </c>
       <c r="J16">
-        <v>1.022999749645996</v>
+        <v>1.036504553961441</v>
       </c>
       <c r="K16">
-        <v>1.029374203954155</v>
+        <v>1.038671554025636</v>
       </c>
       <c r="L16">
-        <v>1.005262930374522</v>
+        <v>1.051237072136562</v>
       </c>
       <c r="M16">
-        <v>1.008990990941416</v>
+        <v>1.056421899259875</v>
       </c>
       <c r="N16">
-        <v>1.024452526630204</v>
+        <v>1.0379765093168</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9965030702047024</v>
+        <v>1.03048871390395</v>
       </c>
       <c r="D17">
-        <v>1.016698212758164</v>
+        <v>1.035491990218215</v>
       </c>
       <c r="E17">
-        <v>0.9931305738247824</v>
+        <v>1.048323996932262</v>
       </c>
       <c r="F17">
-        <v>0.997063999435134</v>
+        <v>1.053552505634165</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044572761019826</v>
+        <v>1.037216067561797</v>
       </c>
       <c r="J17">
-        <v>1.024096296717292</v>
+        <v>1.036707559381063</v>
       </c>
       <c r="K17">
-        <v>1.030419662164874</v>
+        <v>1.038859601916107</v>
       </c>
       <c r="L17">
-        <v>1.007260130657006</v>
+        <v>1.051647443090821</v>
       </c>
       <c r="M17">
-        <v>1.011123703959439</v>
+        <v>1.056858295114575</v>
       </c>
       <c r="N17">
-        <v>1.025550630924117</v>
+        <v>1.038179803027403</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9975749887898466</v>
+        <v>1.030687796509866</v>
       </c>
       <c r="D18">
-        <v>1.017500307492047</v>
+        <v>1.035644023501274</v>
       </c>
       <c r="E18">
-        <v>0.994500506446076</v>
+        <v>1.048605672682185</v>
       </c>
       <c r="F18">
-        <v>0.9985122901817994</v>
+        <v>1.053849165844391</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044953281531028</v>
+        <v>1.037269337404428</v>
       </c>
       <c r="J18">
-        <v>1.024729924207475</v>
+        <v>1.03682588306681</v>
       </c>
       <c r="K18">
-        <v>1.031023648722954</v>
+        <v>1.038969182508142</v>
       </c>
       <c r="L18">
-        <v>1.008414848373414</v>
+        <v>1.051886829289999</v>
       </c>
       <c r="M18">
-        <v>1.01235675294262</v>
+        <v>1.057112859284333</v>
       </c>
       <c r="N18">
-        <v>1.026185158238014</v>
+        <v>1.038298294746356</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9979389627588697</v>
+        <v>1.030755676810198</v>
       </c>
       <c r="D19">
-        <v>1.017772710705449</v>
+        <v>1.035695858963787</v>
       </c>
       <c r="E19">
-        <v>0.9949656874690685</v>
+        <v>1.048701732054707</v>
       </c>
       <c r="F19">
-        <v>0.9990040595978544</v>
+        <v>1.053950333929895</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04508226223974</v>
+        <v>1.037287471683427</v>
       </c>
       <c r="J19">
-        <v>1.024944976300677</v>
+        <v>1.036866213793858</v>
       </c>
       <c r="K19">
-        <v>1.031228619897131</v>
+        <v>1.039006528904084</v>
       </c>
       <c r="L19">
-        <v>1.008806875805226</v>
+        <v>1.05196845786854</v>
       </c>
       <c r="M19">
-        <v>1.012775370574623</v>
+        <v>1.057199662832987</v>
       </c>
       <c r="N19">
-        <v>1.026400515729856</v>
+        <v>1.038338682747662</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9963051705690538</v>
+        <v>1.030452093341838</v>
       </c>
       <c r="D20">
-        <v>1.016550152287985</v>
+        <v>1.035464022967801</v>
       </c>
       <c r="E20">
-        <v>0.9928776600149753</v>
+        <v>1.048272192009725</v>
       </c>
       <c r="F20">
-        <v>0.9967966101459885</v>
+        <v>1.053497944147397</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044502400990154</v>
+        <v>1.037206255041661</v>
       </c>
       <c r="J20">
-        <v>1.02397926846288</v>
+        <v>1.036685787706434</v>
       </c>
       <c r="K20">
-        <v>1.030308098648326</v>
+        <v>1.038839436967857</v>
       </c>
       <c r="L20">
-        <v>1.007046914092205</v>
+        <v>1.051603411722379</v>
       </c>
       <c r="M20">
-        <v>1.010896022151604</v>
+        <v>1.056811471718283</v>
       </c>
       <c r="N20">
-        <v>1.025433436476161</v>
+        <v>1.038158000434499</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9908845728526435</v>
+        <v>1.029464997204411</v>
       </c>
       <c r="D21">
-        <v>1.012497679283396</v>
+        <v>1.03471003188676</v>
       </c>
       <c r="E21">
-        <v>0.9859501073451784</v>
+        <v>1.046876763819668</v>
       </c>
       <c r="F21">
-        <v>0.9894714879129385</v>
+        <v>1.052028187443126</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042562756930856</v>
+        <v>1.036940179032275</v>
       </c>
       <c r="J21">
-        <v>1.020768412716675</v>
+        <v>1.036098196072565</v>
       </c>
       <c r="K21">
-        <v>1.027246085550252</v>
+        <v>1.038294977384794</v>
       </c>
       <c r="L21">
-        <v>1.001202639378933</v>
+        <v>1.050416887755999</v>
       </c>
       <c r="M21">
-        <v>1.004655109753351</v>
+        <v>1.055549678808765</v>
       </c>
       <c r="N21">
-        <v>1.022218020946506</v>
+        <v>1.037569574353112</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9873885813774356</v>
+        <v>1.02884428400443</v>
       </c>
       <c r="D22">
-        <v>1.009887278252021</v>
+        <v>1.034235766147161</v>
       </c>
       <c r="E22">
-        <v>0.9814810769846656</v>
+        <v>1.046000198164197</v>
       </c>
       <c r="F22">
-        <v>0.9847449373067917</v>
+        <v>1.051104856239656</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041299851807145</v>
+        <v>1.036771330207078</v>
       </c>
       <c r="J22">
-        <v>1.018692458422696</v>
+        <v>1.035727983024363</v>
       </c>
       <c r="K22">
-        <v>1.025265378301858</v>
+        <v>1.037951716281408</v>
       </c>
       <c r="L22">
-        <v>0.9974285458728577</v>
+        <v>1.04967107809214</v>
       </c>
       <c r="M22">
-        <v>1.000624780860711</v>
+        <v>1.054756527570401</v>
       </c>
       <c r="N22">
-        <v>1.020139118559314</v>
+        <v>1.037198835559918</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9892504894894665</v>
+        <v>1.029173343841818</v>
       </c>
       <c r="D23">
-        <v>1.011277209220816</v>
+        <v>1.034487202163774</v>
       </c>
       <c r="E23">
-        <v>0.9838613983414783</v>
+        <v>1.046464807315678</v>
       </c>
       <c r="F23">
-        <v>0.987262518674631</v>
+        <v>1.051594259764852</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041973562790566</v>
+        <v>1.036860987556874</v>
       </c>
       <c r="J23">
-        <v>1.019798551056752</v>
+        <v>1.035924312872108</v>
       </c>
       <c r="K23">
-        <v>1.026320808852407</v>
+        <v>1.038133774170713</v>
       </c>
       <c r="L23">
-        <v>0.9994390865637124</v>
+        <v>1.0500664269082</v>
       </c>
       <c r="M23">
-        <v>1.002771829211597</v>
+        <v>1.055176974651079</v>
       </c>
       <c r="N23">
-        <v>1.021246781971781</v>
+        <v>1.037395444218566</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9963946210101682</v>
+        <v>1.030468640628596</v>
       </c>
       <c r="D24">
-        <v>1.016617074550675</v>
+        <v>1.035476660236033</v>
       </c>
       <c r="E24">
-        <v>0.9929919766316995</v>
+        <v>1.048295600147447</v>
       </c>
       <c r="F24">
-        <v>0.9969174700071423</v>
+        <v>1.053522597868785</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044534207773569</v>
+        <v>1.037210689431775</v>
       </c>
       <c r="J24">
-        <v>1.024032166906876</v>
+        <v>1.03669562565458</v>
       </c>
       <c r="K24">
-        <v>1.030358527325714</v>
+        <v>1.038848548963069</v>
       </c>
       <c r="L24">
-        <v>1.007143288969424</v>
+        <v>1.051623307528659</v>
       </c>
       <c r="M24">
-        <v>1.01099893544206</v>
+        <v>1.056832629127672</v>
       </c>
       <c r="N24">
-        <v>1.025486410042015</v>
+        <v>1.03816785235366</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004329747755858</v>
+        <v>1.031971363712651</v>
       </c>
       <c r="D25">
-        <v>1.022559499103895</v>
+        <v>1.036623959237798</v>
       </c>
       <c r="E25">
-        <v>1.003136122168681</v>
+        <v>1.050423648135573</v>
       </c>
       <c r="F25">
-        <v>1.007639825858217</v>
+        <v>1.055763702626669</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047327140292472</v>
+        <v>1.037609709862073</v>
       </c>
       <c r="J25">
-        <v>1.028712272071493</v>
+        <v>1.037587318062345</v>
       </c>
       <c r="K25">
-        <v>1.034817418393264</v>
+        <v>1.039673901301249</v>
       </c>
       <c r="L25">
-        <v>1.015685948178389</v>
+        <v>1.053430917687435</v>
       </c>
       <c r="M25">
-        <v>1.020120689827541</v>
+        <v>1.058754785650758</v>
       </c>
       <c r="N25">
-        <v>1.030173161492782</v>
+        <v>1.039060811066923</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_225/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_225/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033169590446045</v>
+        <v>1.010399259378919</v>
       </c>
       <c r="D2">
-        <v>1.03753826882599</v>
+        <v>1.027111730576179</v>
       </c>
       <c r="E2">
-        <v>1.052123864072763</v>
+        <v>1.010904539363561</v>
       </c>
       <c r="F2">
-        <v>1.057553981660915</v>
+        <v>1.015847523151451</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037922478219318</v>
+        <v>1.049420957411807</v>
       </c>
       <c r="J2">
-        <v>1.038295790881637</v>
+        <v>1.032273317790959</v>
       </c>
       <c r="K2">
-        <v>1.040328867398276</v>
+        <v>1.038205848158647</v>
       </c>
       <c r="L2">
-        <v>1.054873466286093</v>
+        <v>1.022214018586195</v>
       </c>
       <c r="M2">
-        <v>1.060288634187176</v>
+        <v>1.027090404965862</v>
       </c>
       <c r="N2">
-        <v>1.039770289998881</v>
+        <v>1.033739264305636</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034039402005496</v>
+        <v>1.014667761667287</v>
       </c>
       <c r="D3">
-        <v>1.038201672324784</v>
+        <v>1.030316191598854</v>
       </c>
       <c r="E3">
-        <v>1.053360078097911</v>
+        <v>1.016376325713829</v>
       </c>
       <c r="F3">
-        <v>1.058855526115014</v>
+        <v>1.021626679829008</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038146384996785</v>
+        <v>1.050868165775751</v>
       </c>
       <c r="J3">
-        <v>1.03880860791844</v>
+        <v>1.034766401243247</v>
       </c>
       <c r="K3">
-        <v>1.040802486836172</v>
+        <v>1.04057532643184</v>
       </c>
       <c r="L3">
-        <v>1.055921376181862</v>
+        <v>1.026803870086119</v>
       </c>
       <c r="M3">
-        <v>1.061402799449501</v>
+        <v>1.031990123751959</v>
       </c>
       <c r="N3">
-        <v>1.040283835294698</v>
+        <v>1.036235888222377</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03460212914186</v>
+        <v>1.01736930275567</v>
       </c>
       <c r="D4">
-        <v>1.038630716912878</v>
+        <v>1.032345387867431</v>
       </c>
       <c r="E4">
-        <v>1.054160790830322</v>
+        <v>1.019844307437979</v>
       </c>
       <c r="F4">
-        <v>1.059698482950441</v>
+        <v>1.025288522419922</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038289788739589</v>
+        <v>1.051772145917151</v>
       </c>
       <c r="J4">
-        <v>1.039139692872616</v>
+        <v>1.036338899274925</v>
       </c>
       <c r="K4">
-        <v>1.041108046951252</v>
+        <v>1.042068497553046</v>
       </c>
       <c r="L4">
-        <v>1.056599679961033</v>
+        <v>1.029708986386844</v>
       </c>
       <c r="M4">
-        <v>1.062123957806312</v>
+        <v>1.035091024854242</v>
       </c>
       <c r="N4">
-        <v>1.040615390427484</v>
+        <v>1.037810619381629</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03483867516092</v>
+        <v>1.018491058993014</v>
       </c>
       <c r="D5">
-        <v>1.038811033037115</v>
+        <v>1.033188184775355</v>
       </c>
       <c r="E5">
-        <v>1.054497603011185</v>
+        <v>1.021285616042934</v>
       </c>
       <c r="F5">
-        <v>1.060053047616094</v>
+        <v>1.026810172384403</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03834972115403</v>
+        <v>1.052144596574719</v>
       </c>
       <c r="J5">
-        <v>1.039278702746202</v>
+        <v>1.036990531413156</v>
       </c>
       <c r="K5">
-        <v>1.041236287436277</v>
+        <v>1.042686916883764</v>
       </c>
       <c r="L5">
-        <v>1.056884896320435</v>
+        <v>1.030915419812991</v>
       </c>
       <c r="M5">
-        <v>1.062427186092869</v>
+        <v>1.036378675091806</v>
       </c>
       <c r="N5">
-        <v>1.040754597711035</v>
+        <v>1.038463176912239</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034878390821875</v>
+        <v>1.018678601651135</v>
       </c>
       <c r="D6">
-        <v>1.038841305695838</v>
+        <v>1.033329100679037</v>
       </c>
       <c r="E6">
-        <v>1.054554166582321</v>
+        <v>1.021526664052038</v>
       </c>
       <c r="F6">
-        <v>1.060112591501363</v>
+        <v>1.027064643458656</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038359763267452</v>
+        <v>1.05220669331843</v>
       </c>
       <c r="J6">
-        <v>1.039302032645597</v>
+        <v>1.037099397707356</v>
       </c>
       <c r="K6">
-        <v>1.041257806832531</v>
+        <v>1.042790214020001</v>
       </c>
       <c r="L6">
-        <v>1.056932788798887</v>
+        <v>1.031117130844204</v>
       </c>
       <c r="M6">
-        <v>1.06247810260909</v>
+        <v>1.036593959889554</v>
       </c>
       <c r="N6">
-        <v>1.040777960741563</v>
+        <v>1.038572197809064</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034605289978423</v>
+        <v>1.017384345968375</v>
       </c>
       <c r="D7">
-        <v>1.038633126520212</v>
+        <v>1.032356689319256</v>
       </c>
       <c r="E7">
-        <v>1.054165290573164</v>
+        <v>1.019863630652515</v>
       </c>
       <c r="F7">
-        <v>1.059703219930085</v>
+        <v>1.025308923649835</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038290590953045</v>
+        <v>1.051777152172966</v>
       </c>
       <c r="J7">
-        <v>1.039141551030492</v>
+        <v>1.036347643151101</v>
       </c>
       <c r="K7">
-        <v>1.041109761360421</v>
+        <v>1.042076797128778</v>
       </c>
       <c r="L7">
-        <v>1.056603490809045</v>
+        <v>1.029725164445299</v>
       </c>
       <c r="M7">
-        <v>1.062128009346896</v>
+        <v>1.035108292373133</v>
       </c>
       <c r="N7">
-        <v>1.040617251224157</v>
+        <v>1.037819375675111</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033463567409383</v>
+        <v>1.011854651519026</v>
       </c>
       <c r="D8">
-        <v>1.0377625144099</v>
+        <v>1.028204070569923</v>
       </c>
       <c r="E8">
-        <v>1.05254148350357</v>
+        <v>1.012769263517013</v>
       </c>
       <c r="F8">
-        <v>1.057993685843297</v>
+        <v>1.017817194278825</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037998454503741</v>
+        <v>1.049916886287023</v>
       </c>
       <c r="J8">
-        <v>1.038469253059385</v>
+        <v>1.033124476409396</v>
       </c>
       <c r="K8">
-        <v>1.040489115908944</v>
+        <v>1.039015085829225</v>
       </c>
       <c r="L8">
-        <v>1.055227564045886</v>
+        <v>1.023779001041356</v>
       </c>
       <c r="M8">
-        <v>1.060665126764093</v>
+        <v>1.028761109940326</v>
       </c>
       <c r="N8">
-        <v>1.039943998512817</v>
+        <v>1.034591631666931</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031450979752627</v>
+        <v>1.001623442837962</v>
       </c>
       <c r="D9">
-        <v>1.036226734386599</v>
+        <v>1.020531577856499</v>
       </c>
       <c r="E9">
-        <v>1.049686201600812</v>
+        <v>0.9996754184618186</v>
       </c>
       <c r="F9">
-        <v>1.054987118572494</v>
+        <v>1.003982418431917</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037472366314304</v>
+        <v>1.046381215055467</v>
       </c>
       <c r="J9">
-        <v>1.037278922415161</v>
+        <v>1.0271190031151</v>
       </c>
       <c r="K9">
-        <v>1.039388572704939</v>
+        <v>1.033300101257486</v>
       </c>
       <c r="L9">
-        <v>1.052804770211395</v>
+        <v>1.012773763970884</v>
       </c>
       <c r="M9">
-        <v>1.058088977039187</v>
+        <v>1.017011212430687</v>
       </c>
       <c r="N9">
-        <v>1.038751977462546</v>
+        <v>1.02857762991172</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030108807741054</v>
+        <v>0.9944390067661266</v>
       </c>
       <c r="D10">
-        <v>1.03520183592457</v>
+        <v>1.015154335776905</v>
       </c>
       <c r="E10">
-        <v>1.047786691431908</v>
+        <v>0.9904927622175084</v>
       </c>
       <c r="F10">
-        <v>1.05298659981944</v>
+        <v>0.994275074838348</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037114065485303</v>
+        <v>1.043837303624666</v>
       </c>
       <c r="J10">
-        <v>1.036481600778681</v>
+        <v>1.022875010569754</v>
       </c>
       <c r="K10">
-        <v>1.038650288671098</v>
+        <v>1.029255260600004</v>
       </c>
       <c r="L10">
-        <v>1.051190699454978</v>
+        <v>1.00503582100338</v>
       </c>
       <c r="M10">
-        <v>1.056372585256007</v>
+        <v>1.008748469672961</v>
       </c>
       <c r="N10">
-        <v>1.037953523537888</v>
+        <v>1.024327610410166</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029527534550621</v>
+        <v>0.9912330020643578</v>
       </c>
       <c r="D11">
-        <v>1.034757808860507</v>
+        <v>1.012757988001717</v>
       </c>
       <c r="E11">
-        <v>1.046965117141634</v>
+        <v>0.9863954412920779</v>
       </c>
       <c r="F11">
-        <v>1.052121251331716</v>
+        <v>0.9899424398372509</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036957125766216</v>
+        <v>1.042688130029596</v>
       </c>
       <c r="J11">
-        <v>1.036135464874189</v>
+        <v>1.020975101844174</v>
       </c>
       <c r="K11">
-        <v>1.038329523542049</v>
+        <v>1.027443252279653</v>
       </c>
       <c r="L11">
-        <v>1.050492041555515</v>
+        <v>1.00157856248623</v>
       </c>
       <c r="M11">
-        <v>1.05562960186808</v>
+        <v>1.005056552580419</v>
       </c>
       <c r="N11">
-        <v>1.03760689608071</v>
+        <v>1.022425003596274</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029311608775864</v>
+        <v>0.9900270439602979</v>
       </c>
       <c r="D12">
-        <v>1.034592842504421</v>
+        <v>1.011857134554784</v>
       </c>
       <c r="E12">
-        <v>1.046660085482695</v>
+        <v>0.9848540365123657</v>
       </c>
       <c r="F12">
-        <v>1.051799954414365</v>
+        <v>0.9883123310910259</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036898562347717</v>
+        <v>1.042253808634241</v>
       </c>
       <c r="J12">
-        <v>1.036006761309214</v>
+        <v>1.020259557608781</v>
       </c>
       <c r="K12">
-        <v>1.038210214957252</v>
+        <v>1.026760642448193</v>
       </c>
       <c r="L12">
-        <v>1.050232564456249</v>
+        <v>1.00027727798538</v>
       </c>
       <c r="M12">
-        <v>1.055353657367177</v>
+        <v>1.003666927032112</v>
       </c>
       <c r="N12">
-        <v>1.037478009741909</v>
+        <v>1.021708443205992</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029357926258532</v>
+        <v>0.9902864234410284</v>
       </c>
       <c r="D13">
-        <v>1.034628229912436</v>
+        <v>1.012050865815428</v>
       </c>
       <c r="E13">
-        <v>1.046725509606243</v>
+        <v>0.9851855761084013</v>
       </c>
       <c r="F13">
-        <v>1.051868867743888</v>
+        <v>0.9886629580415708</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036911136567485</v>
+        <v>1.042347315184929</v>
       </c>
       <c r="J13">
-        <v>1.036034374684078</v>
+        <v>1.020413497451487</v>
       </c>
       <c r="K13">
-        <v>1.038235814380746</v>
+        <v>1.026907504308143</v>
       </c>
       <c r="L13">
-        <v>1.05028822158711</v>
+        <v>1.000557200273335</v>
       </c>
       <c r="M13">
-        <v>1.055412846944154</v>
+        <v>1.003965853186506</v>
       </c>
       <c r="N13">
-        <v>1.037505662330933</v>
+        <v>1.021862601660932</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029509686362038</v>
+        <v>0.9911336302871379</v>
       </c>
       <c r="D14">
-        <v>1.034744173396861</v>
+        <v>1.012683745551524</v>
       </c>
       <c r="E14">
-        <v>1.04693990033112</v>
+        <v>0.9862684333747399</v>
       </c>
       <c r="F14">
-        <v>1.052094690143785</v>
+        <v>0.9898081265714469</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036952290381527</v>
+        <v>1.042652383089386</v>
       </c>
       <c r="J14">
-        <v>1.03612482891337</v>
+        <v>1.020916158267965</v>
       </c>
       <c r="K14">
-        <v>1.038319664761144</v>
+        <v>1.027387025065708</v>
       </c>
       <c r="L14">
-        <v>1.050470592379876</v>
+        <v>1.001471353394316</v>
       </c>
       <c r="M14">
-        <v>1.055606791551695</v>
+        <v>1.004942065618193</v>
       </c>
       <c r="N14">
-        <v>1.037596245015606</v>
+        <v>1.022365976313426</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029603188795903</v>
+        <v>0.9916535952626637</v>
       </c>
       <c r="D15">
-        <v>1.034815605405314</v>
+        <v>1.013072243474191</v>
       </c>
       <c r="E15">
-        <v>1.047072011721872</v>
+        <v>0.9869329966039846</v>
       </c>
       <c r="F15">
-        <v>1.052233844227162</v>
+        <v>0.9905109074104956</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036977610968111</v>
+        <v>1.042839346363241</v>
       </c>
       <c r="J15">
-        <v>1.036180543103352</v>
+        <v>1.02122454603334</v>
       </c>
       <c r="K15">
-        <v>1.038371306281966</v>
+        <v>1.027681194211435</v>
       </c>
       <c r="L15">
-        <v>1.050582961716072</v>
+        <v>1.002032292961901</v>
       </c>
       <c r="M15">
-        <v>1.055726291508387</v>
+        <v>1.005541083819826</v>
       </c>
       <c r="N15">
-        <v>1.037652038326129</v>
+        <v>1.022674802024801</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03014738278914</v>
+        <v>0.9946497067605251</v>
       </c>
       <c r="D16">
-        <v>1.035231299583963</v>
+        <v>1.01531189700832</v>
       </c>
       <c r="E16">
-        <v>1.047841235993935</v>
+        <v>0.9907620288090274</v>
       </c>
       <c r="F16">
-        <v>1.053044048751612</v>
+        <v>0.9945597808642574</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037124443311014</v>
+        <v>1.043912540846081</v>
       </c>
       <c r="J16">
-        <v>1.036504553961441</v>
+        <v>1.022999749645997</v>
       </c>
       <c r="K16">
-        <v>1.038671554025636</v>
+        <v>1.029374203954156</v>
       </c>
       <c r="L16">
-        <v>1.051237072136562</v>
+        <v>1.005262930374523</v>
       </c>
       <c r="M16">
-        <v>1.056421899259875</v>
+        <v>1.008990990941417</v>
       </c>
       <c r="N16">
-        <v>1.0379765093168</v>
+        <v>1.024452526630205</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03048871390395</v>
+        <v>0.9965030702047024</v>
       </c>
       <c r="D17">
-        <v>1.035491990218215</v>
+        <v>1.016698212758164</v>
       </c>
       <c r="E17">
-        <v>1.048323996932262</v>
+        <v>0.9931305738247819</v>
       </c>
       <c r="F17">
-        <v>1.053552505634165</v>
+        <v>0.9970639994351332</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037216067561797</v>
+        <v>1.044572761019826</v>
       </c>
       <c r="J17">
-        <v>1.036707559381063</v>
+        <v>1.024096296717292</v>
       </c>
       <c r="K17">
-        <v>1.038859601916107</v>
+        <v>1.030419662164874</v>
       </c>
       <c r="L17">
-        <v>1.051647443090821</v>
+        <v>1.007260130657005</v>
       </c>
       <c r="M17">
-        <v>1.056858295114575</v>
+        <v>1.011123703959439</v>
       </c>
       <c r="N17">
-        <v>1.038179803027403</v>
+        <v>1.025550630924117</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030687796509866</v>
+        <v>0.9975749887898472</v>
       </c>
       <c r="D18">
-        <v>1.035644023501274</v>
+        <v>1.017500307492047</v>
       </c>
       <c r="E18">
-        <v>1.048605672682185</v>
+        <v>0.9945005064460773</v>
       </c>
       <c r="F18">
-        <v>1.053849165844391</v>
+        <v>0.998512290181801</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037269337404428</v>
+        <v>1.044953281531028</v>
       </c>
       <c r="J18">
-        <v>1.03682588306681</v>
+        <v>1.024729924207475</v>
       </c>
       <c r="K18">
-        <v>1.038969182508142</v>
+        <v>1.031023648722955</v>
       </c>
       <c r="L18">
-        <v>1.051886829289999</v>
+        <v>1.008414848373416</v>
       </c>
       <c r="M18">
-        <v>1.057112859284333</v>
+        <v>1.012356752942621</v>
       </c>
       <c r="N18">
-        <v>1.038298294746356</v>
+        <v>1.026185158238015</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030755676810198</v>
+        <v>0.9979389627588684</v>
       </c>
       <c r="D19">
-        <v>1.035695858963787</v>
+        <v>1.017772710705448</v>
       </c>
       <c r="E19">
-        <v>1.048701732054707</v>
+        <v>0.994965687469068</v>
       </c>
       <c r="F19">
-        <v>1.053950333929895</v>
+        <v>0.9990040595978534</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037287471683427</v>
+        <v>1.04508226223974</v>
       </c>
       <c r="J19">
-        <v>1.036866213793858</v>
+        <v>1.024944976300676</v>
       </c>
       <c r="K19">
-        <v>1.039006528904084</v>
+        <v>1.03122861989713</v>
       </c>
       <c r="L19">
-        <v>1.05196845786854</v>
+        <v>1.008806875805225</v>
       </c>
       <c r="M19">
-        <v>1.057199662832987</v>
+        <v>1.012775370574622</v>
       </c>
       <c r="N19">
-        <v>1.038338682747662</v>
+        <v>1.026400515729855</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030452093341838</v>
+        <v>0.9963051705690547</v>
       </c>
       <c r="D20">
-        <v>1.035464022967801</v>
+        <v>1.016550152287986</v>
       </c>
       <c r="E20">
-        <v>1.048272192009725</v>
+        <v>0.992877660014977</v>
       </c>
       <c r="F20">
-        <v>1.053497944147397</v>
+        <v>0.9967966101459904</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037206255041661</v>
+        <v>1.044502400990155</v>
       </c>
       <c r="J20">
-        <v>1.036685787706434</v>
+        <v>1.023979268462881</v>
       </c>
       <c r="K20">
-        <v>1.038839436967857</v>
+        <v>1.030308098648326</v>
       </c>
       <c r="L20">
-        <v>1.051603411722379</v>
+        <v>1.007046914092207</v>
       </c>
       <c r="M20">
-        <v>1.056811471718283</v>
+        <v>1.010896022151605</v>
       </c>
       <c r="N20">
-        <v>1.038158000434499</v>
+        <v>1.025433436476162</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029464997204411</v>
+        <v>0.9908845728526422</v>
       </c>
       <c r="D21">
-        <v>1.03471003188676</v>
+        <v>1.012497679283395</v>
       </c>
       <c r="E21">
-        <v>1.046876763819668</v>
+        <v>0.9859501073451783</v>
       </c>
       <c r="F21">
-        <v>1.052028187443126</v>
+        <v>0.9894714879129382</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036940179032275</v>
+        <v>1.042562756930855</v>
       </c>
       <c r="J21">
-        <v>1.036098196072565</v>
+        <v>1.020768412716674</v>
       </c>
       <c r="K21">
-        <v>1.038294977384794</v>
+        <v>1.027246085550251</v>
       </c>
       <c r="L21">
-        <v>1.050416887755999</v>
+        <v>1.001202639378933</v>
       </c>
       <c r="M21">
-        <v>1.055549678808765</v>
+        <v>1.004655109753351</v>
       </c>
       <c r="N21">
-        <v>1.037569574353112</v>
+        <v>1.022218020946505</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02884428400443</v>
+        <v>0.987388581377436</v>
       </c>
       <c r="D22">
-        <v>1.034235766147161</v>
+        <v>1.009887278252021</v>
       </c>
       <c r="E22">
-        <v>1.046000198164197</v>
+        <v>0.9814810769846657</v>
       </c>
       <c r="F22">
-        <v>1.051104856239656</v>
+        <v>0.984744937306792</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036771330207078</v>
+        <v>1.041299851807146</v>
       </c>
       <c r="J22">
-        <v>1.035727983024363</v>
+        <v>1.018692458422696</v>
       </c>
       <c r="K22">
-        <v>1.037951716281408</v>
+        <v>1.025265378301859</v>
       </c>
       <c r="L22">
-        <v>1.04967107809214</v>
+        <v>0.9974285458728579</v>
       </c>
       <c r="M22">
-        <v>1.054756527570401</v>
+        <v>1.000624780860711</v>
       </c>
       <c r="N22">
-        <v>1.037198835559918</v>
+        <v>1.020139118559314</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029173343841818</v>
+        <v>0.9892504894894669</v>
       </c>
       <c r="D23">
-        <v>1.034487202163774</v>
+        <v>1.011277209220816</v>
       </c>
       <c r="E23">
-        <v>1.046464807315678</v>
+        <v>0.9838613983414785</v>
       </c>
       <c r="F23">
-        <v>1.051594259764852</v>
+        <v>0.9872625186746313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036860987556874</v>
+        <v>1.041973562790566</v>
       </c>
       <c r="J23">
-        <v>1.035924312872108</v>
+        <v>1.019798551056752</v>
       </c>
       <c r="K23">
-        <v>1.038133774170713</v>
+        <v>1.026320808852408</v>
       </c>
       <c r="L23">
-        <v>1.0500664269082</v>
+        <v>0.9994390865637126</v>
       </c>
       <c r="M23">
-        <v>1.055176974651079</v>
+        <v>1.002771829211598</v>
       </c>
       <c r="N23">
-        <v>1.037395444218566</v>
+        <v>1.021246781971782</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030468640628596</v>
+        <v>0.9963946210101684</v>
       </c>
       <c r="D24">
-        <v>1.035476660236033</v>
+        <v>1.016617074550675</v>
       </c>
       <c r="E24">
-        <v>1.048295600147447</v>
+        <v>0.9929919766316997</v>
       </c>
       <c r="F24">
-        <v>1.053522597868785</v>
+        <v>0.9969174700071424</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037210689431775</v>
+        <v>1.044534207773569</v>
       </c>
       <c r="J24">
-        <v>1.03669562565458</v>
+        <v>1.024032166906876</v>
       </c>
       <c r="K24">
-        <v>1.038848548963069</v>
+        <v>1.030358527325714</v>
       </c>
       <c r="L24">
-        <v>1.051623307528659</v>
+        <v>1.007143288969424</v>
       </c>
       <c r="M24">
-        <v>1.056832629127672</v>
+        <v>1.010998935442061</v>
       </c>
       <c r="N24">
-        <v>1.03816785235366</v>
+        <v>1.025486410042015</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031971363712651</v>
+        <v>1.004329747755857</v>
       </c>
       <c r="D25">
-        <v>1.036623959237798</v>
+        <v>1.022559499103894</v>
       </c>
       <c r="E25">
-        <v>1.050423648135573</v>
+        <v>1.003136122168681</v>
       </c>
       <c r="F25">
-        <v>1.055763702626669</v>
+        <v>1.007639825858216</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037609709862073</v>
+        <v>1.047327140292472</v>
       </c>
       <c r="J25">
-        <v>1.037587318062345</v>
+        <v>1.028712272071493</v>
       </c>
       <c r="K25">
-        <v>1.039673901301249</v>
+        <v>1.034817418393263</v>
       </c>
       <c r="L25">
-        <v>1.053430917687435</v>
+        <v>1.015685948178389</v>
       </c>
       <c r="M25">
-        <v>1.058754785650758</v>
+        <v>1.020120689827541</v>
       </c>
       <c r="N25">
-        <v>1.039060811066923</v>
+        <v>1.030173161492781</v>
       </c>
     </row>
   </sheetData>
